--- a/output/condition/石田美咲希_condition.xlsx
+++ b/output/condition/石田美咲希_condition.xlsx
@@ -1,147 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
-  <si>
-    <t>レポート年</t>
-  </si>
-  <si>
-    <t>レポート月</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>心拍数</t>
-  </si>
-  <si>
-    <t>体温</t>
-  </si>
-  <si>
-    <t>SPO2</t>
-  </si>
-  <si>
-    <t>体調 [疲労感]</t>
-  </si>
-  <si>
-    <t>体調 [倦怠感]</t>
-  </si>
-  <si>
-    <t>体調 [食欲]</t>
-  </si>
-  <si>
-    <t>体調 [今の体調]</t>
-  </si>
-  <si>
-    <t>体調 [意欲]</t>
-  </si>
-  <si>
-    <t>ケガなど [首の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [肩の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [背中の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [腰の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [下腿部の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [足部の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [その他]</t>
-  </si>
-  <si>
-    <t>上記で「その他」と回答した場合に記載</t>
-  </si>
-  <si>
-    <t>2020年度</t>
-  </si>
-  <si>
-    <t>1月</t>
-  </si>
-  <si>
-    <t>2月</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>11月</t>
-  </si>
-  <si>
-    <t>12月</t>
-  </si>
-  <si>
-    <t>石田美咲希</t>
-  </si>
-  <si>
-    <t>手首を痛めた</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -156,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,781 +420,921 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>レポート年</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>レポート月</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>心拍数</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>体温</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SPO2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [疲労感]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [倦怠感]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [食欲]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [今の体調]</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [意欲]</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [首の痛み]</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [肩の痛み]</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [背中の痛み]</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [腰の痛み]</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [下腿部の痛み]</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [足部の痛み]</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [その他]</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>上記で「その他」と回答した場合に記載</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>石田美咲希</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>136</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>37.07051565391991</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>97.89908288261165</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>6.834219596851889</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>9.857124183337675</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>6.627836471286189</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>2.154188085972391</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>6.300945986988232</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>8.954337260608007</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>7.667767330452582</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>7.070582088203127</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>3.35789777323683</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>5.674439805290055</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>6.554822934145458</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>3.240243719095854</v>
       </c>
-      <c r="S2" t="s">
-        <v>33</v>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>石田美咲希</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>134</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>36.47739809563524</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>98.74482057445535</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>2.653427376525745</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>9.041252058953468</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>1.202366157289434</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>3.236853321771287</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>3.506036443914605</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>1.220703199440971</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>5.750366662494062</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>1.734369322009782</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>3.207691588910857</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>7.468844508660018</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>5.313839071476243</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>7.224130854468385</v>
       </c>
-      <c r="S3" t="s">
-        <v>33</v>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>石田美咲希</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>148</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>36.69703391577977</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>96.82149206326147</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>3.69787032012092</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>8.477307342657342</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>8.198281628281951</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>5.903431191880362</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>1.805587871066498</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>9.558631271641806</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>2.987310029866836</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>3.74463280451182</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>2.131096050245676</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>1.821348782238841</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>5.908589552021714</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>2.100856065702388</v>
       </c>
-      <c r="S4" t="s">
-        <v>33</v>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4月</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>石田美咲希</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>148</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>36.68311240654673</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>97.23724144873955</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>4.735756012206755</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>5.645070534360782</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>3.562873673083547</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>7.118669834230007</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>8.668248045954055</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>9.102192362295975</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>2.801845048486065</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>3.468547236482333</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>6.052062402321589</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>3.786596967502481</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>7.359899099953672</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>6.437363159730238</v>
       </c>
-      <c r="S5" t="s">
-        <v>33</v>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5月</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>石田美咲希</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>147</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>36.54500357279876</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>95.91627574756494</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>5.93423369889485</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>8.567095754561144</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>4.148472266527045</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>4.221048107006195</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>6.295365093588199</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>5.527918502083846</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>3.696313975071208</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>6.578213624665038</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>7.831390256967754</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>7.308803643613486</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>9.536306870924459</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>6.584122080903605</v>
       </c>
-      <c r="S6" t="s">
-        <v>33</v>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6月</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>石田美咲希</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>144</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>37.32453057253132</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>95.09875361637617</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>6.057191316909733</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>2.806533126154839</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>3.440996943216187</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>6.55437688326389</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>9.457010395463545</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>4.067872336641572</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>8.270158061202832</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>5.399408201138903</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>9.612498741680508</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>7.729013036974704</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>1.406217841163475</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>9.138674252196887</v>
       </c>
-      <c r="S7" t="s">
-        <v>33</v>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7月</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>石田美咲希</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>130</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>37.4984972903063</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>95.95367897579219</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>6.045304078775617</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>5.146555204324988</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>2.108527563326654</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>9.255416348424671</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>5.627802200343616</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>6.166717041833378</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>3.236068913958633</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>9.108594225224182</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>9.346318558562904</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>9.871684494841659</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>3.815496020214962</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>1.667668261678646</v>
       </c>
-      <c r="S8" t="s">
-        <v>33</v>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8月</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>石田美咲希</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>141</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>37.21002680961471</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>95.15596593200581</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>5.263648984537178</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>6.03606125819634</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>4.510628388398284</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>7.807538802589112</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>4.564035110222263</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>1.201065629636478</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>2.034534859892453</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>6.17300381879176</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>5.20753365152585</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>9.973727104751326</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>9.212900182322741</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>8.037958266343477</v>
       </c>
-      <c r="S9" t="s">
-        <v>33</v>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9月</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>石田美咲希</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>139</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>36.00620740577803</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>95.01849550286481</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>1.627321535072975</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>5.791698749870323</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>2.315011202120842</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>2.556150409767707</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>8.78463039886044</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>1.654864845534309</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>9.606300652681897</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>9.247624095890531</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>2.444822437535722</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>9.29430736452594</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>2.54731664450875</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>5.382590503196593</v>
       </c>
-      <c r="S10" t="s">
-        <v>33</v>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10月</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>石田美咲希</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>140</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>36.61085830558681</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>97.93594818867724</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>5.504580248408795</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>7.465645891609853</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>1.194724134233736</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>4.238307138128376</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>7.39547402403295</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>2.684840685019725</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>6.33664778745732</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>6.578986324076175</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>3.994457109741727</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>1.438800823938127</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>7.77063131766652</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>1.301461683984384</v>
       </c>
-      <c r="S11" t="s">
-        <v>33</v>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11月</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>石田美咲希</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>135</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>36.62357928513359</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>95.95341403454854</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>3.478581291322834</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>6.995589473264204</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>7.854559301630466</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>6.764021041816964</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>5.35421600362992</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>8.480486818283866</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>1.176031972684205</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>3.21403409436825</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>4.080421324142232</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>3.820084375845644</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>6.980188846236478</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>6.048892703200657</v>
       </c>
-      <c r="S12" t="s">
-        <v>33</v>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12月</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>石田美咲希</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>141</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>36.13104224915736</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>95.45543551932018</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>8.954633482633808</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>4.421583293753919</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>7.51205837400738</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>9.198731954129356</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>1.704093955340042</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>8.939825003605424</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>9.3536007515993</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>3.161520759502095</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>6.98021729147524</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>6.284065399912714</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>5.774683598358322</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>7.000628591053591</v>
       </c>
-      <c r="S13" t="s">
-        <v>33</v>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>